--- a/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
+++ b/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Documents\Workspace-Projet-DAO\Ressources-Tp-DAO (1)\CarnetAdressesDAO\carnetadr_bdd\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>IdJoueur</t>
   </si>
@@ -84,12 +84,91 @@
   </si>
   <si>
     <t>nbPair</t>
+  </si>
+  <si>
+    <t>leclerc</t>
+  </si>
+  <si>
+    <t>jacques</t>
+  </si>
+  <si>
+    <t>jac</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>jojo</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>jjs</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>zb</t>
+  </si>
+  <si>
+    <t>uy</t>
+  </si>
+  <si>
+    <t>njk</t>
+  </si>
+  <si>
+    <t>mgu</t>
+  </si>
+  <si>
+    <t>kjnj</t>
+  </si>
+  <si>
+    <t>vuy</t>
+  </si>
+  <si>
+    <t>jkb</t>
+  </si>
+  <si>
+    <t>kjjb</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>eth</t>
+  </si>
+  <si>
+    <t>rjjy</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>umy</t>
+  </si>
+  <si>
+    <t>rhser</t>
+  </si>
+  <si>
+    <t>obtrs</t>
+  </si>
+  <si>
+    <t>vbiau</t>
+  </si>
+  <si>
+    <t>cevwg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -469,6 +548,176 @@
       </c>
       <c r="E3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
+++ b/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25131"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Documents\Workspace-Projet-DAO\Ressources-Tp-DAO (1)\CarnetAdressesDAO\carnetadr_bdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE31F45C-C1E0-40C3-88D1-5F5523929043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05356A2D-FD8B-47E6-9166-E2186C8454D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6792" yWindow="3420" windowWidth="11376" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6792" yWindow="3420" windowWidth="11376" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Joueurs" sheetId="1" r:id="rId1"/>
     <sheet name="Parties" sheetId="2" r:id="rId2"/>
     <sheet name="JoueursParties" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>IdJoueur</t>
   </si>
@@ -68,6 +78,18 @@
     <t>jojo19</t>
   </si>
   <si>
+    <t>bob@gmail.com</t>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Bobito</t>
+  </si>
+  <si>
     <t>idPartie</t>
   </si>
   <si>
@@ -86,82 +108,16 @@
     <t>nbPair</t>
   </si>
   <si>
-    <t>leclerc</t>
-  </si>
-  <si>
-    <t>jacques</t>
-  </si>
-  <si>
-    <t>jac</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>jojo</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>jjs</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>fb</t>
-  </si>
-  <si>
-    <t>zb</t>
-  </si>
-  <si>
-    <t>uy</t>
-  </si>
-  <si>
-    <t>njk</t>
-  </si>
-  <si>
-    <t>mgu</t>
-  </si>
-  <si>
-    <t>kjnj</t>
-  </si>
-  <si>
-    <t>vuy</t>
-  </si>
-  <si>
-    <t>jkb</t>
-  </si>
-  <si>
-    <t>kjjb</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>eth</t>
-  </si>
-  <si>
-    <t>rjjy</t>
-  </si>
-  <si>
-    <t>ver</t>
-  </si>
-  <si>
-    <t>umy</t>
-  </si>
-  <si>
-    <t>rhser</t>
-  </si>
-  <si>
-    <t>obtrs</t>
-  </si>
-  <si>
-    <t>vbiau</t>
-  </si>
-  <si>
-    <t>cevwg</t>
+    <t>stark@marvel.com</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>iron_man</t>
   </si>
 </sst>
 </file>
@@ -169,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,16 +159,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,15 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -533,7 +492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -550,174 +509,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="6" spans="1:5" ht="15"/>
+    <row r="7" spans="1:5" ht="15"/>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -736,17 +561,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -758,24 +583,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2EBE23-2427-4E36-89F2-5912A27AD3EC}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
+++ b/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>IdJoueur</t>
   </si>
@@ -118,6 +118,81 @@
   </si>
   <si>
     <t>iron_man</t>
+  </si>
+  <si>
+    <t>peter@marvel.com</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>spiderman</t>
+  </si>
+  <si>
+    <t>bruce@dc.com</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>batman</t>
+  </si>
+  <si>
+    <t>strange@marvel.com</t>
+  </si>
+  <si>
+    <t>Strange</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>drstrange</t>
+  </si>
+  <si>
+    <t>ned@winterfell.wi</t>
+  </si>
+  <si>
+    <t>Ned</t>
+  </si>
+  <si>
+    <t>ned</t>
+  </si>
+  <si>
+    <t>jon@winterfell.wi</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>jojos</t>
+  </si>
+  <si>
+    <t>sansa@winterfell.wi</t>
+  </si>
+  <si>
+    <t>Sansa</t>
+  </si>
+  <si>
+    <t>sansarouge</t>
+  </si>
+  <si>
+    <t>arya@winterfell.wi</t>
+  </si>
+  <si>
+    <t>Arya</t>
+  </si>
+  <si>
+    <t>arya</t>
   </si>
 </sst>
 </file>
@@ -449,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,6 +620,125 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{871D1B59-0ABD-410B-86E2-B95196A7C5DE}"/>
@@ -555,7 +749,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77898A25-ABC8-4F11-A07E-71C1F331411C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -573,6 +767,54 @@
       <c r="C1" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
+++ b/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
@@ -749,7 +749,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77898A25-ABC8-4F11-A07E-71C1F331411C}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -815,6 +815,54 @@
         <v>1.0</v>
       </c>
       <c r="D5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
+++ b/parent-project-jeumemoire/persistancejeumemory-v0/jeumemory_bdd/BDD.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>IdJoueur</t>
   </si>
@@ -193,6 +193,30 @@
   </si>
   <si>
     <t>arya</t>
+  </si>
+  <si>
+    <t>daenerys@email.va</t>
+  </si>
+  <si>
+    <t>Targaryen</t>
+  </si>
+  <si>
+    <t>Daenerys</t>
+  </si>
+  <si>
+    <t>Daeny</t>
+  </si>
+  <si>
+    <t>f-motoca@honda.com</t>
+  </si>
+  <si>
+    <t>Da motoca</t>
+  </si>
+  <si>
+    <t>Fernandinho</t>
+  </si>
+  <si>
+    <t>Motoca</t>
   </si>
 </sst>
 </file>
@@ -524,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,6 +763,40 @@
         <v>51</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{871D1B59-0ABD-410B-86E2-B95196A7C5DE}"/>
@@ -749,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77898A25-ABC8-4F11-A07E-71C1F331411C}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -863,6 +921,30 @@
         <v>0.0</v>
       </c>
       <c r="D9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
